--- a/data/의류자료.xlsx
+++ b/data/의류자료.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mystat\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28919AD4-76A2-4968-9EA2-ADFB0B70A690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC2BA11-1262-41A4-94FE-270DADA62B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2175" windowWidth="16410" windowHeight="12705" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="510" windowWidth="19860" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="분류목록" sheetId="2" r:id="rId1"/>
@@ -552,10 +552,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2) 등산가방 평균 원가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>상품코드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -739,10 +735,6 @@
     <t>PT4845</t>
   </si>
   <si>
-    <t>4) 이월제품 사이즈의 원피스 총판매가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>이월제품</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -752,6 +744,14 @@
   </si>
   <si>
     <t>5) 4월 이후의 스틱 평균 판매가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 이월제품 사이즈의 장갑 총판매가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 등산가방 평균 판매가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -998,9 +998,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +1005,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2094,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C181" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2124,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -2147,7 +2147,7 @@
         <v>44197</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>31</v>
@@ -2174,7 +2174,7 @@
         <v>44197</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>75</v>
@@ -2192,15 +2192,15 @@
         <f t="shared" ref="H6:H69" si="0">G6/1302</f>
         <v>37.634408602150536</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>44197</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>115</v>
@@ -2219,7 +2219,7 @@
         <v>53.763440860215056</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
         <v>44197</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>49</v>
@@ -2245,15 +2245,15 @@
         <f t="shared" si="0"/>
         <v>83.717357910906301</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>44197</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>91</v>
@@ -2280,7 +2280,7 @@
         <v>44197</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>75</v>
@@ -2298,15 +2298,15 @@
         <f t="shared" si="0"/>
         <v>72.58064516129032</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>44198</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>49</v>
@@ -2325,7 +2325,7 @@
         <v>91.397849462365585</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>44198</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>115</v>
@@ -2351,15 +2351,15 @@
         <f t="shared" si="0"/>
         <v>122.88786482334869</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>44198</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>10</v>
@@ -2378,7 +2378,7 @@
         <v>25.422427035330262</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -2386,7 +2386,7 @@
         <v>44198</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>115</v>
@@ -2404,15 +2404,15 @@
         <f t="shared" si="0"/>
         <v>99.846390168970814</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>44198</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>10</v>
@@ -2439,7 +2439,7 @@
         <v>44199</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>115</v>
@@ -2457,14 +2457,14 @@
         <f t="shared" si="0"/>
         <v>138.24884792626727</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>205</v>
+      <c r="K16" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -2472,7 +2472,7 @@
         <v>44200</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>115</v>
@@ -2490,18 +2490,18 @@
         <f t="shared" si="0"/>
         <v>145.92933947772659</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>44200</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>10</v>
@@ -2519,18 +2519,18 @@
         <f t="shared" si="0"/>
         <v>26.574500768049155</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
         <v>44200</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>91</v>
@@ -2548,18 +2548,18 @@
         <f t="shared" si="0"/>
         <v>72.964669738863293</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="16">
         <v>44203</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>91</v>
@@ -2577,18 +2577,18 @@
         <f t="shared" si="0"/>
         <v>29.953917050691246</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
         <v>44203</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>91</v>
@@ -2606,18 +2606,18 @@
         <f t="shared" si="0"/>
         <v>23.041474654377879</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="16">
         <v>44203</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>31</v>
@@ -2635,18 +2635,18 @@
         <f t="shared" si="0"/>
         <v>25.422427035330262</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
         <v>44203</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>91</v>
@@ -2670,7 +2670,7 @@
         <v>44204</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>49</v>
@@ -2694,7 +2694,7 @@
         <v>44204</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>115</v>
@@ -2718,7 +2718,7 @@
         <v>44204</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>75</v>
@@ -2742,7 +2742,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>115</v>
@@ -2766,7 +2766,7 @@
         <v>44208</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>10</v>
@@ -2790,7 +2790,7 @@
         <v>44208</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>49</v>
@@ -2814,7 +2814,7 @@
         <v>44208</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>49</v>
@@ -2838,7 +2838,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>49</v>
@@ -2862,7 +2862,7 @@
         <v>44208</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>91</v>
@@ -2886,7 +2886,7 @@
         <v>44214</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>115</v>
@@ -2910,7 +2910,7 @@
         <v>44214</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>31</v>
@@ -2934,7 +2934,7 @@
         <v>44214</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>10</v>
@@ -2958,7 +2958,7 @@
         <v>44214</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>115</v>
@@ -2982,7 +2982,7 @@
         <v>44215</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>75</v>
@@ -3006,7 +3006,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>75</v>
@@ -3030,7 +3030,7 @@
         <v>44215</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>115</v>
@@ -3054,7 +3054,7 @@
         <v>44215</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>31</v>
@@ -3078,7 +3078,7 @@
         <v>44215</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>49</v>
@@ -3102,7 +3102,7 @@
         <v>44215</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>91</v>
@@ -3126,7 +3126,7 @@
         <v>44215</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>49</v>
@@ -3150,7 +3150,7 @@
         <v>44215</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>10</v>
@@ -3174,7 +3174,7 @@
         <v>44216</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>91</v>
@@ -3198,7 +3198,7 @@
         <v>44216</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>49</v>
@@ -3222,7 +3222,7 @@
         <v>44216</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>10</v>
@@ -3246,7 +3246,7 @@
         <v>44216</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>10</v>
@@ -3270,7 +3270,7 @@
         <v>44216</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>115</v>
@@ -3294,7 +3294,7 @@
         <v>44216</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>10</v>
@@ -3318,7 +3318,7 @@
         <v>44217</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>91</v>
@@ -3342,7 +3342,7 @@
         <v>44217</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>91</v>
@@ -3366,7 +3366,7 @@
         <v>44217</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>31</v>
@@ -3390,7 +3390,7 @@
         <v>44217</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>75</v>
@@ -3414,7 +3414,7 @@
         <v>44217</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>75</v>
@@ -3438,7 +3438,7 @@
         <v>44217</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>31</v>
@@ -3462,7 +3462,7 @@
         <v>44217</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>115</v>
@@ -3486,7 +3486,7 @@
         <v>44217</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>115</v>
@@ -3510,7 +3510,7 @@
         <v>44218</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>91</v>
@@ -3534,7 +3534,7 @@
         <v>44218</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>75</v>
@@ -3558,7 +3558,7 @@
         <v>44218</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>49</v>
@@ -3582,7 +3582,7 @@
         <v>44218</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>115</v>
@@ -3606,7 +3606,7 @@
         <v>44218</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>91</v>
@@ -3630,7 +3630,7 @@
         <v>44218</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>31</v>
@@ -3654,7 +3654,7 @@
         <v>44218</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>10</v>
@@ -3678,7 +3678,7 @@
         <v>44218</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>31</v>
@@ -3702,7 +3702,7 @@
         <v>44219</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>49</v>
@@ -3726,7 +3726,7 @@
         <v>44219</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>75</v>
@@ -3750,7 +3750,7 @@
         <v>44219</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>75</v>
@@ -3774,7 +3774,7 @@
         <v>44219</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>91</v>
@@ -3798,7 +3798,7 @@
         <v>44219</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>75</v>
@@ -3822,7 +3822,7 @@
         <v>44219</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>31</v>
@@ -3846,7 +3846,7 @@
         <v>44219</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>31</v>
@@ -3870,7 +3870,7 @@
         <v>44219</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>75</v>
@@ -3894,7 +3894,7 @@
         <v>44219</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>75</v>
@@ -3918,7 +3918,7 @@
         <v>44219</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>91</v>
@@ -3942,7 +3942,7 @@
         <v>44220</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>91</v>
@@ -3966,7 +3966,7 @@
         <v>44220</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>31</v>
@@ -3990,7 +3990,7 @@
         <v>44220</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>75</v>
@@ -4014,7 +4014,7 @@
         <v>44220</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>10</v>
@@ -4038,7 +4038,7 @@
         <v>44220</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>115</v>
@@ -4062,7 +4062,7 @@
         <v>44220</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>10</v>
@@ -4086,7 +4086,7 @@
         <v>44221</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>91</v>
@@ -4110,7 +4110,7 @@
         <v>44221</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>49</v>
@@ -4134,7 +4134,7 @@
         <v>44221</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>115</v>
@@ -4158,7 +4158,7 @@
         <v>44221</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>10</v>
@@ -4182,7 +4182,7 @@
         <v>44221</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>31</v>
@@ -4206,7 +4206,7 @@
         <v>44229</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>31</v>
@@ -4230,7 +4230,7 @@
         <v>44229</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>49</v>
@@ -4254,7 +4254,7 @@
         <v>44229</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>10</v>
@@ -4278,7 +4278,7 @@
         <v>44229</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>49</v>
@@ -4302,7 +4302,7 @@
         <v>44229</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>31</v>
@@ -4326,7 +4326,7 @@
         <v>44230</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>49</v>
@@ -4350,7 +4350,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>31</v>
@@ -4374,7 +4374,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>10</v>
@@ -4398,7 +4398,7 @@
         <v>44232</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>75</v>
@@ -4422,7 +4422,7 @@
         <v>44232</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>10</v>
@@ -4446,7 +4446,7 @@
         <v>44232</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>91</v>
@@ -4470,7 +4470,7 @@
         <v>44232</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>10</v>
@@ -4494,7 +4494,7 @@
         <v>44233</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>10</v>
@@ -4518,7 +4518,7 @@
         <v>44233</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>115</v>
@@ -4542,7 +4542,7 @@
         <v>44233</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>115</v>
@@ -4566,7 +4566,7 @@
         <v>44234</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>10</v>
@@ -4590,7 +4590,7 @@
         <v>44234</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>91</v>
@@ -4614,7 +4614,7 @@
         <v>44236</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>31</v>
@@ -4638,7 +4638,7 @@
         <v>44237</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>91</v>
@@ -4662,7 +4662,7 @@
         <v>44237</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>75</v>
@@ -4686,7 +4686,7 @@
         <v>44238</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>49</v>
@@ -4710,7 +4710,7 @@
         <v>44238</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>115</v>
@@ -4734,7 +4734,7 @@
         <v>44240</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>115</v>
@@ -4758,7 +4758,7 @@
         <v>44240</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>91</v>
@@ -4782,7 +4782,7 @@
         <v>44241</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>49</v>
@@ -4806,7 +4806,7 @@
         <v>44241</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>10</v>
@@ -4830,7 +4830,7 @@
         <v>44241</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>75</v>
@@ -4854,7 +4854,7 @@
         <v>44241</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>31</v>
@@ -4878,7 +4878,7 @@
         <v>44241</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>31</v>
@@ -4902,7 +4902,7 @@
         <v>44241</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>31</v>
@@ -4926,7 +4926,7 @@
         <v>44241</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>31</v>
@@ -4950,7 +4950,7 @@
         <v>44242</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>49</v>
@@ -4974,7 +4974,7 @@
         <v>44242</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>75</v>
@@ -4998,7 +4998,7 @@
         <v>44242</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>75</v>
@@ -5022,7 +5022,7 @@
         <v>44242</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>91</v>
@@ -5046,7 +5046,7 @@
         <v>44243</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>91</v>
@@ -5070,7 +5070,7 @@
         <v>44244</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>49</v>
@@ -5094,7 +5094,7 @@
         <v>44244</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>91</v>
@@ -5118,7 +5118,7 @@
         <v>44244</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>115</v>
@@ -5142,7 +5142,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>49</v>
@@ -5166,7 +5166,7 @@
         <v>44244</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>91</v>
@@ -5190,7 +5190,7 @@
         <v>44244</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>31</v>
@@ -5214,7 +5214,7 @@
         <v>44245</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D130" s="14" t="s">
         <v>10</v>
@@ -5238,7 +5238,7 @@
         <v>44246</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>115</v>
@@ -5262,7 +5262,7 @@
         <v>44246</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>49</v>
@@ -5286,7 +5286,7 @@
         <v>44247</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>49</v>
@@ -5310,7 +5310,7 @@
         <v>44247</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D134" s="14" t="s">
         <v>31</v>
@@ -5334,7 +5334,7 @@
         <v>44247</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>31</v>
@@ -5358,7 +5358,7 @@
         <v>44248</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>49</v>
@@ -5382,7 +5382,7 @@
         <v>44248</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D137" s="14" t="s">
         <v>91</v>
@@ -5406,7 +5406,7 @@
         <v>44248</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>49</v>
@@ -5430,7 +5430,7 @@
         <v>44249</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>49</v>
@@ -5454,7 +5454,7 @@
         <v>44249</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D140" s="14" t="s">
         <v>49</v>
@@ -5478,7 +5478,7 @@
         <v>44251</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>31</v>
@@ -5502,7 +5502,7 @@
         <v>44251</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D142" s="14" t="s">
         <v>31</v>
@@ -5526,7 +5526,7 @@
         <v>44254</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D143" s="14" t="s">
         <v>115</v>
@@ -5550,7 +5550,7 @@
         <v>44255</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D144" s="14" t="s">
         <v>91</v>
@@ -5574,7 +5574,7 @@
         <v>44255</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D145" s="14" t="s">
         <v>49</v>
@@ -5598,7 +5598,7 @@
         <v>44255</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>91</v>
@@ -5622,7 +5622,7 @@
         <v>44256</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D147" s="14" t="s">
         <v>91</v>
@@ -5646,7 +5646,7 @@
         <v>44256</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D148" s="14" t="s">
         <v>49</v>
@@ -5670,7 +5670,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D149" s="14" t="s">
         <v>115</v>
@@ -5694,7 +5694,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D150" s="14" t="s">
         <v>49</v>
@@ -5718,7 +5718,7 @@
         <v>44258</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D151" s="14" t="s">
         <v>75</v>
@@ -5742,7 +5742,7 @@
         <v>44258</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D152" s="14" t="s">
         <v>115</v>
@@ -5766,7 +5766,7 @@
         <v>44258</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D153" s="14" t="s">
         <v>49</v>
@@ -5790,7 +5790,7 @@
         <v>44259</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D154" s="14" t="s">
         <v>49</v>
@@ -5814,7 +5814,7 @@
         <v>44259</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>10</v>
@@ -5838,7 +5838,7 @@
         <v>44260</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D156" s="14" t="s">
         <v>10</v>
@@ -5862,7 +5862,7 @@
         <v>44260</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>49</v>
@@ -5886,7 +5886,7 @@
         <v>44261</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D158" s="14" t="s">
         <v>49</v>
@@ -5910,7 +5910,7 @@
         <v>44261</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>49</v>
@@ -5934,7 +5934,7 @@
         <v>44262</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>31</v>
@@ -5958,7 +5958,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>10</v>
@@ -5982,7 +5982,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>31</v>
@@ -6006,7 +6006,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D163" s="14" t="s">
         <v>115</v>
@@ -6030,7 +6030,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D164" s="14" t="s">
         <v>31</v>
@@ -6054,7 +6054,7 @@
         <v>44269</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>115</v>
@@ -6078,7 +6078,7 @@
         <v>44269</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D166" s="14" t="s">
         <v>31</v>
@@ -6102,7 +6102,7 @@
         <v>44270</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D167" s="14" t="s">
         <v>115</v>
@@ -6126,7 +6126,7 @@
         <v>44273</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>10</v>
@@ -6150,7 +6150,7 @@
         <v>44274</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D169" s="14" t="s">
         <v>10</v>
@@ -6174,7 +6174,7 @@
         <v>44274</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D170" s="14" t="s">
         <v>49</v>
@@ -6198,7 +6198,7 @@
         <v>44275</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D171" s="14" t="s">
         <v>75</v>
@@ -6222,7 +6222,7 @@
         <v>44275</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D172" s="14" t="s">
         <v>10</v>
@@ -6246,7 +6246,7 @@
         <v>44275</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D173" s="14" t="s">
         <v>49</v>
@@ -6270,7 +6270,7 @@
         <v>44275</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D174" s="14" t="s">
         <v>115</v>
@@ -6294,7 +6294,7 @@
         <v>44275</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D175" s="14" t="s">
         <v>115</v>
@@ -6318,7 +6318,7 @@
         <v>44275</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D176" s="14" t="s">
         <v>31</v>
@@ -6342,7 +6342,7 @@
         <v>44276</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D177" s="14" t="s">
         <v>115</v>
@@ -6366,7 +6366,7 @@
         <v>44276</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D178" s="14" t="s">
         <v>49</v>
@@ -6390,7 +6390,7 @@
         <v>44278</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D179" s="14" t="s">
         <v>10</v>
@@ -6414,7 +6414,7 @@
         <v>44279</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D180" s="14" t="s">
         <v>31</v>
@@ -6438,7 +6438,7 @@
         <v>44279</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D181" s="14" t="s">
         <v>31</v>
@@ -6462,7 +6462,7 @@
         <v>44282</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D182" s="14" t="s">
         <v>49</v>
@@ -6486,7 +6486,7 @@
         <v>44283</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D183" s="14" t="s">
         <v>31</v>
@@ -6510,7 +6510,7 @@
         <v>44283</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D184" s="14" t="s">
         <v>91</v>
@@ -6534,7 +6534,7 @@
         <v>44284</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D185" s="14" t="s">
         <v>115</v>
@@ -6558,7 +6558,7 @@
         <v>44284</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D186" s="14" t="s">
         <v>75</v>
@@ -6582,7 +6582,7 @@
         <v>44284</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D187" s="14" t="s">
         <v>49</v>
@@ -6606,7 +6606,7 @@
         <v>44284</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D188" s="14" t="s">
         <v>10</v>
@@ -6630,7 +6630,7 @@
         <v>44285</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D189" s="14" t="s">
         <v>91</v>
@@ -6654,7 +6654,7 @@
         <v>44286</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D190" s="14" t="s">
         <v>31</v>
@@ -6678,7 +6678,7 @@
         <v>44287</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D191" s="14" t="s">
         <v>49</v>
@@ -6702,7 +6702,7 @@
         <v>44287</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D192" s="14" t="s">
         <v>49</v>
@@ -6726,7 +6726,7 @@
         <v>44287</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D193" s="14" t="s">
         <v>115</v>
@@ -6750,7 +6750,7 @@
         <v>44287</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D194" s="14" t="s">
         <v>91</v>
@@ -6774,7 +6774,7 @@
         <v>44288</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D195" s="14" t="s">
         <v>75</v>
@@ -6798,7 +6798,7 @@
         <v>44288</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D196" s="14" t="s">
         <v>49</v>
@@ -6822,7 +6822,7 @@
         <v>44289</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D197" s="14" t="s">
         <v>75</v>
@@ -6846,7 +6846,7 @@
         <v>44289</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D198" s="14" t="s">
         <v>10</v>
@@ -6870,7 +6870,7 @@
         <v>44289</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D199" s="14" t="s">
         <v>49</v>
@@ -6894,7 +6894,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D200" s="14" t="s">
         <v>75</v>
@@ -6918,7 +6918,7 @@
         <v>44296</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D201" s="14" t="s">
         <v>115</v>
@@ -6942,7 +6942,7 @@
         <v>44296</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D202" s="14" t="s">
         <v>31</v>
@@ -6966,7 +6966,7 @@
         <v>44296</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D203" s="14" t="s">
         <v>31</v>
@@ -6990,7 +6990,7 @@
         <v>44297</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D204" s="14" t="s">
         <v>91</v>
@@ -7014,7 +7014,7 @@
         <v>44297</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D205" s="14" t="s">
         <v>115</v>
@@ -7038,7 +7038,7 @@
         <v>44302</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D206" s="14" t="s">
         <v>91</v>
@@ -7062,7 +7062,7 @@
         <v>44305</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D207" s="14" t="s">
         <v>49</v>
@@ -7086,7 +7086,7 @@
         <v>44306</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D208" s="14" t="s">
         <v>91</v>
@@ -7110,7 +7110,7 @@
         <v>44306</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D209" s="14" t="s">
         <v>49</v>
@@ -7134,7 +7134,7 @@
         <v>44308</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D210" s="14" t="s">
         <v>49</v>
@@ -7158,7 +7158,7 @@
         <v>44310</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D211" s="14" t="s">
         <v>31</v>
@@ -7182,7 +7182,7 @@
         <v>44310</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D212" s="14" t="s">
         <v>31</v>
@@ -7206,7 +7206,7 @@
         <v>44311</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D213" s="14" t="s">
         <v>91</v>
@@ -7230,7 +7230,7 @@
         <v>44314</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D214" s="14" t="s">
         <v>91</v>
@@ -7254,7 +7254,7 @@
         <v>44315</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D215" s="14" t="s">
         <v>91</v>
@@ -7278,7 +7278,7 @@
         <v>44315</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D216" s="14" t="s">
         <v>115</v>
@@ -7302,7 +7302,7 @@
         <v>44316</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D217" s="14" t="s">
         <v>91</v>
@@ -7326,7 +7326,7 @@
         <v>44317</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D218" s="14" t="s">
         <v>91</v>
@@ -7350,7 +7350,7 @@
         <v>44317</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D219" s="14" t="s">
         <v>31</v>
@@ -7374,7 +7374,7 @@
         <v>44317</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D220" s="14" t="s">
         <v>49</v>
@@ -7398,7 +7398,7 @@
         <v>44317</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D221" s="14" t="s">
         <v>75</v>
@@ -7422,7 +7422,7 @@
         <v>44318</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D222" s="14" t="s">
         <v>31</v>
@@ -7446,7 +7446,7 @@
         <v>44319</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D223" s="14" t="s">
         <v>91</v>
@@ -7470,7 +7470,7 @@
         <v>44320</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D224" s="14" t="s">
         <v>115</v>
@@ -7494,7 +7494,7 @@
         <v>44326</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D225" s="14" t="s">
         <v>115</v>
@@ -7518,7 +7518,7 @@
         <v>44327</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D226" s="14" t="s">
         <v>91</v>
@@ -7542,7 +7542,7 @@
         <v>44327</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D227" s="14" t="s">
         <v>115</v>
@@ -7566,7 +7566,7 @@
         <v>44331</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D228" s="14" t="s">
         <v>75</v>
@@ -7590,7 +7590,7 @@
         <v>44332</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D229" s="14" t="s">
         <v>91</v>
@@ -7614,7 +7614,7 @@
         <v>44333</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D230" s="14" t="s">
         <v>75</v>
@@ -7638,7 +7638,7 @@
         <v>44334</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D231" s="14" t="s">
         <v>75</v>
@@ -7662,7 +7662,7 @@
         <v>44335</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D232" s="14" t="s">
         <v>49</v>
@@ -7686,7 +7686,7 @@
         <v>44335</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D233" s="14" t="s">
         <v>75</v>
@@ -7710,7 +7710,7 @@
         <v>44336</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D234" s="14" t="s">
         <v>49</v>
@@ -7734,7 +7734,7 @@
         <v>44336</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D235" s="14" t="s">
         <v>115</v>
@@ -7758,7 +7758,7 @@
         <v>44337</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D236" s="14" t="s">
         <v>91</v>
@@ -7782,7 +7782,7 @@
         <v>44337</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>49</v>
@@ -7806,7 +7806,7 @@
         <v>44338</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D238" s="14" t="s">
         <v>75</v>
@@ -7830,7 +7830,7 @@
         <v>44340</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D239" s="14" t="s">
         <v>31</v>
@@ -7854,7 +7854,7 @@
         <v>44341</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D240" s="14" t="s">
         <v>91</v>
@@ -7878,7 +7878,7 @@
         <v>44343</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D241" s="14" t="s">
         <v>75</v>
@@ -7902,7 +7902,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D242" s="14" t="s">
         <v>31</v>
@@ -7926,7 +7926,7 @@
         <v>44344</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D243" s="14" t="s">
         <v>91</v>
@@ -7950,7 +7950,7 @@
         <v>44344</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D244" s="14" t="s">
         <v>91</v>
@@ -7974,7 +7974,7 @@
         <v>44345</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D245" s="14" t="s">
         <v>75</v>
@@ -7998,7 +7998,7 @@
         <v>44345</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D246" s="14" t="s">
         <v>10</v>
@@ -8022,7 +8022,7 @@
         <v>44345</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D247" s="14" t="s">
         <v>91</v>
@@ -8046,7 +8046,7 @@
         <v>44346</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>75</v>
@@ -8070,7 +8070,7 @@
         <v>44347</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D249" s="14" t="s">
         <v>49</v>
@@ -8094,7 +8094,7 @@
         <v>44347</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D250" s="14" t="s">
         <v>91</v>
@@ -8118,7 +8118,7 @@
         <v>44348</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D251" s="14" t="s">
         <v>75</v>
@@ -8142,7 +8142,7 @@
         <v>44348</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D252" s="14" t="s">
         <v>31</v>
@@ -8166,7 +8166,7 @@
         <v>44348</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D253" s="14" t="s">
         <v>49</v>
@@ -8190,7 +8190,7 @@
         <v>44349</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D254" s="14" t="s">
         <v>49</v>
@@ -8214,7 +8214,7 @@
         <v>44349</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D255" s="14" t="s">
         <v>91</v>
@@ -8238,7 +8238,7 @@
         <v>44350</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D256" s="14" t="s">
         <v>115</v>
@@ -8262,7 +8262,7 @@
         <v>44350</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D257" s="14" t="s">
         <v>91</v>
@@ -8286,7 +8286,7 @@
         <v>44350</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D258" s="14" t="s">
         <v>75</v>
@@ -8310,7 +8310,7 @@
         <v>44354</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D259" s="14" t="s">
         <v>91</v>
@@ -8334,7 +8334,7 @@
         <v>44357</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D260" s="14" t="s">
         <v>49</v>
@@ -8358,7 +8358,7 @@
         <v>44357</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D261" s="14" t="s">
         <v>115</v>
@@ -8382,7 +8382,7 @@
         <v>44357</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D262" s="14" t="s">
         <v>91</v>
@@ -8406,7 +8406,7 @@
         <v>44357</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D263" s="14" t="s">
         <v>91</v>
@@ -8430,7 +8430,7 @@
         <v>44358</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D264" s="14" t="s">
         <v>49</v>
@@ -8454,7 +8454,7 @@
         <v>44359</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D265" s="14" t="s">
         <v>75</v>
@@ -8478,7 +8478,7 @@
         <v>44359</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D266" s="14" t="s">
         <v>75</v>
@@ -8502,7 +8502,7 @@
         <v>44359</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D267" s="14" t="s">
         <v>49</v>
@@ -8526,7 +8526,7 @@
         <v>44360</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D268" s="14" t="s">
         <v>75</v>
@@ -8550,7 +8550,7 @@
         <v>44363</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D269" s="14" t="s">
         <v>91</v>
@@ -8574,7 +8574,7 @@
         <v>44363</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D270" s="14" t="s">
         <v>115</v>
@@ -8598,7 +8598,7 @@
         <v>44365</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D271" s="14" t="s">
         <v>115</v>
@@ -8622,7 +8622,7 @@
         <v>44366</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D272" s="14" t="s">
         <v>49</v>
@@ -8646,7 +8646,7 @@
         <v>44367</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D273" s="14" t="s">
         <v>115</v>
@@ -8670,7 +8670,7 @@
         <v>44367</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D274" s="14" t="s">
         <v>49</v>
@@ -8694,7 +8694,7 @@
         <v>44367</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D275" s="14" t="s">
         <v>91</v>
@@ -8718,7 +8718,7 @@
         <v>44368</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D276" s="14" t="s">
         <v>49</v>
@@ -8742,7 +8742,7 @@
         <v>44369</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D277" s="14" t="s">
         <v>49</v>
@@ -8766,7 +8766,7 @@
         <v>44369</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D278" s="14" t="s">
         <v>91</v>
@@ -8790,7 +8790,7 @@
         <v>44369</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D279" s="14" t="s">
         <v>91</v>
@@ -8814,7 +8814,7 @@
         <v>44369</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D280" s="14" t="s">
         <v>91</v>
@@ -8838,7 +8838,7 @@
         <v>44370</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D281" s="14" t="s">
         <v>49</v>
@@ -8862,7 +8862,7 @@
         <v>44372</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D282" s="14" t="s">
         <v>91</v>
@@ -8886,7 +8886,7 @@
         <v>44373</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D283" s="14" t="s">
         <v>75</v>
@@ -8910,7 +8910,7 @@
         <v>44375</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D284" s="14" t="s">
         <v>31</v>
@@ -8934,7 +8934,7 @@
         <v>44376</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D285" s="14" t="s">
         <v>10</v>
@@ -8958,7 +8958,7 @@
         <v>44376</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D286" s="14" t="s">
         <v>49</v>
